--- a/inputs.xlsx
+++ b/inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjaga\PSPLiquids\PSPL_R4_Avionics_Sizing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAF4D5F-C9C4-4DA4-BB43-6B6B96D25F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420F3711-1580-4B12-B1E7-357E7F173EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="110">
   <si>
     <t>GRP7330048</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>Voltage(V)</t>
+  </si>
+  <si>
+    <t>Molicel P50B</t>
   </si>
 </sst>
 </file>
@@ -669,14 +672,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
     <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
@@ -4431,6 +4436,35 @@
         <v>97</v>
       </c>
     </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>3.6</v>
+      </c>
+      <c r="D108">
+        <v>5000</v>
+      </c>
+      <c r="E108">
+        <v>60</v>
+      </c>
+      <c r="H108">
+        <v>70</v>
+      </c>
+      <c r="I108">
+        <v>21</v>
+      </c>
+      <c r="J108">
+        <v>70</v>
+      </c>
+      <c r="K108" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
